--- a/assets/disciplinas/LOQ4216.xlsx
+++ b/assets/disciplinas/LOQ4216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar conceitos e metodologias fundamentais para concepção e projeto de fábricas, com ênfase no projeto e organização dos processos de produção, movimentação e armazenagem de materiais, visando o adequado aproveitamento do espaço físico e a eficiência nos fluxos de materiais e ordens de produção no ambiente interno das fábricas.</t>
+    <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5701460 - Antonio Iacono</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Arranjo Físico da Fábrica; Sistema de Movimentação e Armazenagem de Materiais; Análise do Fluxo de Materiais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Objetivos de Desempenho de Empresas de Manufatura e de suas Fábricas. 2. Conceitos de Produto, Recurso e Processo para Projeto da Fábrica. 3. Tipos de Produção e Tipos de Arranjo Físico. 4. Planejamento do Arranjo Físico e dos Fluxos Internos. 5. Manufatura Celular. 6. Planejamento do Sistema de Movimentação e Armazenagem de Materiais</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas e Trabalhos</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>M = (0,6P + 0,4T)P = Prova escritaT = Trabalho sobre projeto de fábricaM = Média de aproveitamento do alunoAprovação com média de aproveitamento maior ou igual a 5,0 e no mínimo 70% de frequência às aulas.A média das provas deve ser maior ou igual a 5,0 (cinco) para que o aluno possa utilizar a nota do Trabalho.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>BANZATO, Eduardo et al. Atualidades na armazenagem. São Paulo: IMAM, 2003.BARNES, R.M. Estudo de Movimentos de Tempos: projeto e medida do trabalho. São Paulo, Edgar Blücher, 1977.GURGEL, F.A.C. Administração de recursos materiais e patrimoniais. 2a. Edição. São Paulo. Editora Cengage. 2013. FRANCISCHINI, P.G.; VALLE, C.E. Implantação de Indústrias. Rio de Janeiro, LTC Editora, 1975.LEE, Q et al. Projeto de Instalações e Locais de Trabalho. São Paulo: IMAM, 1998.MOURA, Reinaldo Aparecido. Sistemas e técnicas de movimentação e armazenagem de materiais. IMAM, 2012.NEWMANN, C.; SCALICE, R.K. Projeto de Fábrica e Layout. Rio de Janeiro, Elsevier, 2015.Müther, R. Planejamento do Layout: Sistema SLP. São Paulo, Edgard Blücher, 1978. SLACK, Nigel et al. Administração da produção. São Paulo: Atlas, 8ª ed. 2018.TOMPKINS, James A. et al. Planejamento de instalações. Editora LTC:, 2013.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4216.xlsx
+++ b/assets/disciplinas/LOQ4216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar conceitos e metodologias fundamentais para concepção e projeto de fábricas, com ênfase no projeto e organização dos processos de produção, movimentação e armazenagem de materiais, visando o adequado aproveitamento do espaço físico e a eficiência nos fluxos de materiais e ordens de produção no ambiente interno das fábricas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To introduce fundamental concepts and methodologies for plant design, with emphasis on the design and organization of production processes, materials handling and warehousing, aiming at appropriate use of space and efficient flow of materials and jobs in the internal environment of manufacturing plants</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To introduce fundamental concepts and methodologies for plant design, with emphasis on the design and organization of production processes, materials handling and warehousing, aiming at appropriate use of space and efficient flow of materials and jobs in the internal environment of manufacturing plants</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Arranjo Físico da Fábrica; Sistema de Movimentação e Armazenagem de Materiais; Análise do Fluxo de Materiais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Objetivos de Desempenho de Empresas de Manufatura e de suas Fábricas. 2. Conceitos de Produto, Recurso e Processo para Projeto da Fábrica. 3. Tipos de Produção e Tipos de Arranjo Físico. 4. Planejamento do Arranjo Físico e dos Fluxos Internos. 5. Manufatura Celular. 6. Planejamento do Sistema de Movimentação e Armazenagem de Materiais</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Provas e Trabalhos</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Provas e Trabalhos</t>
+    <t>M = (0,6P + 0,4T)P = Prova escritaT = Trabalho sobre projeto de fábricaM = Média de aproveitamento do alunoAprovação com média de aproveitamento maior ou igual a 5,0 e no mínimo 70% de frequência às aulas.A média das provas deve ser maior ou igual a 5,0 (cinco) para que o aluno possa utilizar a nota do Trabalho.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>M = (0,6P + 0,4T)P = Prova escritaT = Trabalho sobre projeto de fábricaM = Média de aproveitamento do alunoAprovação com média de aproveitamento maior ou igual a 5,0 e no mínimo 70% de frequência às aulas.A média das provas deve ser maior ou igual a 5,0 (cinco) para que o aluno possa utilizar a nota do Trabalho.</t>
+    <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
+    <t>BANZATO, Eduardo et al. Atualidades na armazenagem. São Paulo: IMAM, 2003.BARNES, R.M. Estudo de Movimentos de Tempos: projeto e medida do trabalho. São Paulo, Edgar Blücher, 1977.GURGEL, F.A.C. Administração de recursos materiais e patrimoniais. 2a. Edição. São Paulo. Editora Cengage. 2013. FRANCISCHINI, P.G.; VALLE, C.E. Implantação de Indústrias. Rio de Janeiro, LTC Editora, 1975.LEE, Q et al. Projeto de Instalações e Locais de Trabalho. São Paulo: IMAM, 1998.MOURA, Reinaldo Aparecido. Sistemas e técnicas de movimentação e armazenagem de materiais. IMAM, 2012.NEWMANN, C.; SCALICE, R.K. Projeto de Fábrica e Layout. Rio de Janeiro, Elsevier, 2015.Müther, R. Planejamento do Layout: Sistema SLP. São Paulo, Edgard Blücher, 1978. SLACK, Nigel et al. Administração da produção. São Paulo: Atlas, 8ª ed. 2018.TOMPKINS, James A. et al. Planejamento de instalações. Editora LTC:, 2013.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
